--- a/Contract.xlsx
+++ b/Contract.xlsx
@@ -13,17 +13,17 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1581503291" val="973" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1581503291" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1581503291" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1581503291"/>
+      <pm:revision xmlns:pm="smNativeData" day="1582747315" val="974" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1582747315" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1582747315" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1582747315"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t xml:space="preserve">Contract </t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>IPFS Infura Gateway</t>
+  </si>
+  <si>
+    <t>https://ipfs.infura.io:5001/api/v0/block/get?arg=&lt;key&gt;</t>
   </si>
 </sst>
 </file>
@@ -86,7 +92,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1581503291" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1582747315" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -101,7 +107,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1581503291" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1582747315" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -117,7 +123,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1581503291" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1582747315" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -139,7 +145,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1581503291" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1582747315" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -161,7 +167,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1581503291"/>
+          <pm:border xmlns:pm="smNativeData" id="1582747315"/>
         </ext>
       </extLst>
     </border>
@@ -180,7 +186,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1581503291"/>
+          <pm:border xmlns:pm="smNativeData" id="1582747315"/>
         </ext>
       </extLst>
     </border>
@@ -203,7 +209,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1581503291" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1582747315" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -467,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" topLeftCell="B1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
@@ -535,11 +541,19 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1581503291" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1582747315" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -548,14 +562,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1581503291" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1581503291" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1582747315" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1582747315" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1581503291" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1582747315" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Contract.xlsx
+++ b/Contract.xlsx
@@ -13,10 +13,10 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1582747315" val="974" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1582747315" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1582747315" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1582747315"/>
+      <pm:revision xmlns:pm="smNativeData" day="1582902452" val="974" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1582902452" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1582902452" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1582902452"/>
     </ext>
   </extLst>
 </workbook>
@@ -67,7 +67,7 @@
     <t>IPFS Infura Gateway</t>
   </si>
   <si>
-    <t>https://ipfs.infura.io:5001/api/v0/block/get?arg=&lt;key&gt;</t>
+    <t>https://ipfs.infura.io:5001/api/v0/block/get?arg=QmQv9RDA4LPLsQzFUncHmtw8kWWJBrnqyxQm53marjXPFY</t>
   </si>
 </sst>
 </file>
@@ -92,7 +92,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582747315" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1582902452" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -107,7 +107,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582747315" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1582902452" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -123,7 +123,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582747315" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1582902452" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -145,7 +145,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582747315" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1582902452" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -167,7 +167,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582747315"/>
+          <pm:border xmlns:pm="smNativeData" id="1582902452"/>
         </ext>
       </extLst>
     </border>
@@ -186,7 +186,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582747315"/>
+          <pm:border xmlns:pm="smNativeData" id="1582902452"/>
         </ext>
       </extLst>
     </border>
@@ -209,7 +209,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1582747315" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1582902452" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -553,7 +553,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1582747315" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1582902452" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -562,14 +562,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1582747315" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1582747315" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1582902452" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1582902452" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1582747315" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1582902452" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Contract.xlsx
+++ b/Contract.xlsx
@@ -13,17 +13,17 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1582902452" val="974" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1582902452" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1582902452" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1582902452"/>
+      <pm:revision xmlns:pm="smNativeData" day="1583284206" val="974" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1583284206" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1583284206" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1583284206"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t xml:space="preserve">Contract </t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>https://ipfs.infura.io:5001/api/v0/block/get?arg=QmQv9RDA4LPLsQzFUncHmtw8kWWJBrnqyxQm53marjXPFY</t>
+  </si>
+  <si>
+    <t>https://ipfs.infura.io:5001/api/v0/cat?arg=QmQv9RDA4LPLsQzFUncHmtw8kWWJBrnqyxQm53marjXPFY</t>
   </si>
 </sst>
 </file>
@@ -92,7 +95,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582902452" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583284206" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -107,7 +110,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582902452" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583284206" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -123,7 +126,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1582902452" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1583284206" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -145,7 +148,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1582902452" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1583284206" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -167,7 +170,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582902452"/>
+          <pm:border xmlns:pm="smNativeData" id="1583284206"/>
         </ext>
       </extLst>
     </border>
@@ -186,7 +189,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1582902452"/>
+          <pm:border xmlns:pm="smNativeData" id="1583284206"/>
         </ext>
       </extLst>
     </border>
@@ -209,7 +212,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1582902452" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1583284206" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -473,17 +476,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="B1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="C1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
   <cols>
     <col min="1" max="1" width="26.756757" customWidth="1"/>
     <col min="2" max="2" width="49.000000" customWidth="1"/>
-    <col min="3" max="3" width="63.054054" customWidth="1"/>
+    <col min="3" max="3" width="94.108108" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -549,11 +552,16 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7" spans="3:3">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1582902452" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1583284206" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -562,14 +570,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1582902452" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1582902452" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1583284206" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1583284206" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1582902452" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1583284206" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Contract.xlsx
+++ b/Contract.xlsx
@@ -13,10 +13,10 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1583284206" val="974" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1583284206" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1583284206" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1583284206"/>
+      <pm:revision xmlns:pm="smNativeData" day="1585160869" val="974" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1585160869" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1585160869" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1585160869"/>
     </ext>
   </extLst>
 </workbook>
@@ -95,7 +95,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1583284206" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1585160869" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -110,7 +110,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1583284206" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1585160869" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -126,7 +126,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1583284206" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1585160869" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -148,7 +148,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1583284206" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1585160869" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -170,7 +170,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1583284206"/>
+          <pm:border xmlns:pm="smNativeData" id="1585160869"/>
         </ext>
       </extLst>
     </border>
@@ -189,7 +189,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1583284206"/>
+          <pm:border xmlns:pm="smNativeData" id="1585160869"/>
         </ext>
       </extLst>
     </border>
@@ -212,7 +212,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1583284206" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1585160869" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -476,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" topLeftCell="C1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
@@ -557,11 +557,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="14" spans="3:3">
+      <c r="C14"/>
+    </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1583284206" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1585160869" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -570,14 +573,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1583284206" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1583284206" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1585160869" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1585160869" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1583284206" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1585160869" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
